--- a/biology/Médecine/Étude_épidémiologique_auprès_des_enfants_des_femmes_de_la_Mutuelle_générale_de_l'Éducation_nationale/Étude_épidémiologique_auprès_des_enfants_des_femmes_de_la_Mutuelle_générale_de_l'Éducation_nationale.xlsx
+++ b/biology/Médecine/Étude_épidémiologique_auprès_des_enfants_des_femmes_de_la_Mutuelle_générale_de_l'Éducation_nationale/Étude_épidémiologique_auprès_des_enfants_des_femmes_de_la_Mutuelle_générale_de_l'Éducation_nationale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tude_%C3%A9pid%C3%A9miologique_aupr%C3%A8s_des_enfants_des_femmes_de_la_Mutuelle_g%C3%A9n%C3%A9rale_de_l%27%C3%89ducation_nationale</t>
+          <t>Étude_épidémiologique_auprès_des_enfants_des_femmes_de_la_Mutuelle_générale_de_l'Éducation_nationale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'étude épidémiologique auprès des enfants des femmes de la Mutuelle générale de l'Éducation nationale, dite E4N, est une enquête de cohorte prospective menée à l'INSERM par le docteur Françoise Clavel-Chapelon dans le prolongement de l'étude E3N. L’étude E4N vise à prolonger l’étude E3N en suivant les descendants des femmes ayant participé à l’étude E3N. L’objectif est de mieux comprendre, dans l’apparition des maladies, ce qui relève de la part génétique, de l’environnement familial et de l’environnement extra-familial.
 Ce projet est financé exclusivement par l’État au titre des investissements d'avenir. Plus précisément c’est l’Agence nationale de la recherche qui gère les fonds, ceux-ci étant versés à l’université Paris-Sud 11, porteur institutionnel du projet.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89tude_%C3%A9pid%C3%A9miologique_aupr%C3%A8s_des_enfants_des_femmes_de_la_Mutuelle_g%C3%A9n%C3%A9rale_de_l%27%C3%89ducation_nationale</t>
+          <t>Étude_épidémiologique_auprès_des_enfants_des_femmes_de_la_Mutuelle_générale_de_l'Éducation_nationale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>2011 mars : financement accordé au titre des Investissements d'avenir
 2012 décembre : recueil des contacts nécessaire au lancement de la cohorte
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89tude_%C3%A9pid%C3%A9miologique_aupr%C3%A8s_des_enfants_des_femmes_de_la_Mutuelle_g%C3%A9n%C3%A9rale_de_l%27%C3%89ducation_nationale</t>
+          <t>Étude_épidémiologique_auprès_des_enfants_des_femmes_de_la_Mutuelle_générale_de_l'Éducation_nationale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Site de l'équipe chargée de l'étude
  Portail de la médecine   Portail des probabilités et de la statistique                    </t>
